--- a/spliced/walkingToRunning/2023-04-03_17-01-10/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-01-10/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.98594284057617</v>
+        <v>10.44645118713379</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.535707473754883</v>
+        <v>-1.072464942932129</v>
       </c>
       <c r="C2" t="n">
-        <v>8.854530334472656</v>
+        <v>-7.741544246673584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.44645118713379</v>
+        <v>-12.54131031036377</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.072464942932129</v>
+        <v>-6.995788097381592</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.741544246673584</v>
+        <v>4.960752010345459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-12.54131031036377</v>
+        <v>1.563988208770752</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.995788097381592</v>
+        <v>-0.6327500343322754</v>
       </c>
       <c r="C4" t="n">
-        <v>4.960752010345459</v>
+        <v>7.09266471862793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.563988208770752</v>
+        <v>1.386142730712891</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6327500343322754</v>
+        <v>-3.08348274230957</v>
       </c>
       <c r="C5" t="n">
-        <v>7.09266471862793</v>
+        <v>6.775681018829346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.386142730712891</v>
+        <v>1.111974596977234</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.08348274230957</v>
+        <v>-5.867249965667725</v>
       </c>
       <c r="C6" t="n">
-        <v>6.775681018829346</v>
+        <v>13.13678932189941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.111974596977234</v>
+        <v>-4.935175895690918</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.867249965667725</v>
+        <v>8.790708541870117</v>
       </c>
       <c r="C7" t="n">
-        <v>13.13678932189941</v>
+        <v>6.229645729064941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.935175895690918</v>
+        <v>16.58664321899414</v>
       </c>
       <c r="B8" t="n">
-        <v>8.790708541870117</v>
+        <v>-65.17784118652344</v>
       </c>
       <c r="C8" t="n">
-        <v>6.229645729064941</v>
+        <v>6.808780193328857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.58664321899414</v>
+        <v>-8.056964874267578</v>
       </c>
       <c r="B9" t="n">
-        <v>-65.17784118652344</v>
+        <v>23.69245338439941</v>
       </c>
       <c r="C9" t="n">
-        <v>6.808780193328857</v>
+        <v>-1.875571012496948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-8.056964874267578</v>
+        <v>-4.308743476867676</v>
       </c>
       <c r="B10" t="n">
-        <v>23.69245338439941</v>
+        <v>2.427361011505127</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.875571012496948</v>
+        <v>6.903748512268066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.308743476867676</v>
+        <v>-2.216989278793335</v>
       </c>
       <c r="B11" t="n">
-        <v>2.427361011505127</v>
+        <v>-25.4277229309082</v>
       </c>
       <c r="C11" t="n">
-        <v>6.903748512268066</v>
+        <v>2.421021461486816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.216989278793335</v>
+        <v>-0.3425538539886474</v>
       </c>
       <c r="B12" t="n">
-        <v>-25.4277229309082</v>
+        <v>-11.7038745880127</v>
       </c>
       <c r="C12" t="n">
-        <v>2.421021461486816</v>
+        <v>31.56782150268555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3425538539886474</v>
+        <v>-1.816783547401428</v>
       </c>
       <c r="B13" t="n">
-        <v>-11.7038745880127</v>
+        <v>8.313332557678223</v>
       </c>
       <c r="C13" t="n">
-        <v>31.56782150268555</v>
+        <v>9.763429641723633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.816783547401428</v>
+        <v>2.05627965927124</v>
       </c>
       <c r="B14" t="n">
-        <v>8.313332557678223</v>
+        <v>-54.87781143188477</v>
       </c>
       <c r="C14" t="n">
-        <v>9.763429641723633</v>
+        <v>29.65373039245605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.05627965927124</v>
+        <v>-26.46129989624023</v>
       </c>
       <c r="B15" t="n">
-        <v>-54.87781143188477</v>
+        <v>36.53782653808594</v>
       </c>
       <c r="C15" t="n">
-        <v>29.65373039245605</v>
+        <v>2.705925941467285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-26.46129989624023</v>
+        <v>-6.459963798522949</v>
       </c>
       <c r="B16" t="n">
-        <v>36.53782653808594</v>
+        <v>9.631237030029297</v>
       </c>
       <c r="C16" t="n">
-        <v>2.705925941467285</v>
+        <v>-4.527087211608887</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.459963798522949</v>
+        <v>-2.323664665222168</v>
       </c>
       <c r="B17" t="n">
-        <v>9.631237030029297</v>
+        <v>-6.97331714630127</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.527087211608887</v>
+        <v>3.054933786392212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.323664665222168</v>
+        <v>23.92743682861328</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.97331714630127</v>
+        <v>6.633898258209229</v>
       </c>
       <c r="C18" t="n">
-        <v>3.054933786392212</v>
+        <v>20.45568084716797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23.92743682861328</v>
+        <v>12.88255214691162</v>
       </c>
       <c r="B19" t="n">
-        <v>6.633898258209229</v>
+        <v>13.76539325714111</v>
       </c>
       <c r="C19" t="n">
-        <v>20.45568084716797</v>
+        <v>5.36094856262207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.88255214691162</v>
+        <v>-39.15726470947266</v>
       </c>
       <c r="B20" t="n">
-        <v>13.76539325714111</v>
+        <v>-50.35159301757812</v>
       </c>
       <c r="C20" t="n">
-        <v>5.36094856262207</v>
+        <v>59.05854797363281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-39.15726470947266</v>
+        <v>-29.70075225830078</v>
       </c>
       <c r="B21" t="n">
-        <v>-50.35159301757812</v>
+        <v>18.98210144042969</v>
       </c>
       <c r="C21" t="n">
-        <v>59.05854797363281</v>
+        <v>-6.946440696716309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.437598705291748</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.676052093505859</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.736623287200928</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36.55035400390625</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.483262062072754</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.189533472061157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25.18490791320801</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.66421031951904</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.16248321533203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11.78367233276367</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.32002067565918</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.97337532043457</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-10.2064151763916</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-54.4849967956543</v>
+      </c>
+      <c r="C26" t="n">
+        <v>45.01205825805664</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-5.304520606994629</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.910325050354004</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-39.37523651123047</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10.93332672119141</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14.53017807006836</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.883467674255371</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23.18131637573243</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-33.343994140625</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.427485942840576</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17.88149261474609</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-17.56607437133789</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.040470600128174</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-4.381585597991943</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13.65173721313477</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.552346229553223</v>
       </c>
     </row>
   </sheetData>
